--- a/data/pca/factorExposure/factorExposure_2017-07-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02339100313934435</v>
+        <v>0.009254043726888128</v>
       </c>
       <c r="C2">
-        <v>-0.003986928932612611</v>
+        <v>0.04356342503848618</v>
       </c>
       <c r="D2">
-        <v>0.02385277653774636</v>
+        <v>-0.02957398876232262</v>
       </c>
       <c r="E2">
-        <v>-0.01176023031998878</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03228755115040221</v>
+      </c>
+      <c r="F2">
+        <v>-0.01106041085386523</v>
+      </c>
+      <c r="G2">
+        <v>0.07225265814969961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0177588926526878</v>
+        <v>0.04970711087162132</v>
       </c>
       <c r="C3">
-        <v>0.05558478878381819</v>
+        <v>0.08284295714993424</v>
       </c>
       <c r="D3">
-        <v>0.03824094127177712</v>
+        <v>-0.01672893971561358</v>
       </c>
       <c r="E3">
-        <v>-0.01547096749740936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1034139215955991</v>
+      </c>
+      <c r="F3">
+        <v>-0.00933144267661796</v>
+      </c>
+      <c r="G3">
+        <v>0.1783067658661209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02313196692001343</v>
+        <v>0.05913127283174782</v>
       </c>
       <c r="C4">
-        <v>0.009429915284588366</v>
+        <v>0.06630032342598692</v>
       </c>
       <c r="D4">
-        <v>0.07691950103168019</v>
+        <v>-0.02394605540640161</v>
       </c>
       <c r="E4">
-        <v>0.01450119479017849</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02377150490559083</v>
+      </c>
+      <c r="F4">
+        <v>-0.005739170593214566</v>
+      </c>
+      <c r="G4">
+        <v>0.07773975516203099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0148170339074122</v>
+        <v>0.03838118810216114</v>
       </c>
       <c r="C6">
-        <v>0.003721370059355552</v>
+        <v>0.05301508216520118</v>
       </c>
       <c r="D6">
-        <v>0.08424585187659123</v>
+        <v>-0.01652359582632964</v>
       </c>
       <c r="E6">
-        <v>0.008606901043563382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02607985096497277</v>
+      </c>
+      <c r="F6">
+        <v>-0.01147270432170059</v>
+      </c>
+      <c r="G6">
+        <v>0.06032988540340182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01113062482172279</v>
+        <v>0.02061712451093825</v>
       </c>
       <c r="C7">
-        <v>0.006551851025384478</v>
+        <v>0.04112019743299083</v>
       </c>
       <c r="D7">
-        <v>0.04102362364945941</v>
+        <v>-0.0130284182319963</v>
       </c>
       <c r="E7">
-        <v>0.05988897656105261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.006316356640985273</v>
+      </c>
+      <c r="F7">
+        <v>0.006143744927955523</v>
+      </c>
+      <c r="G7">
+        <v>0.1153091571419322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-1.203224734041369e-05</v>
+        <v>0.001399611364545665</v>
       </c>
       <c r="C8">
-        <v>-0.002831801050845461</v>
+        <v>0.02359436190142615</v>
       </c>
       <c r="D8">
-        <v>0.004359960186295283</v>
+        <v>-0.004074792092472014</v>
       </c>
       <c r="E8">
-        <v>0.008132717672689353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02182361348666758</v>
+      </c>
+      <c r="F8">
+        <v>-0.007755087205038716</v>
+      </c>
+      <c r="G8">
+        <v>0.05782992454080849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0162384680913537</v>
+        <v>0.03429461728181086</v>
       </c>
       <c r="C9">
-        <v>0.01380582879819222</v>
+        <v>0.04716127339112391</v>
       </c>
       <c r="D9">
-        <v>0.05527902355597222</v>
+        <v>-0.01648227690192713</v>
       </c>
       <c r="E9">
-        <v>0.003752138115325923</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01679259965714998</v>
+      </c>
+      <c r="F9">
+        <v>-0.01032502912546637</v>
+      </c>
+      <c r="G9">
+        <v>0.08206842109910646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02316490171279166</v>
+        <v>0.09495649142430113</v>
       </c>
       <c r="C10">
-        <v>0.1716702462941431</v>
+        <v>-0.1827974700825834</v>
       </c>
       <c r="D10">
-        <v>-0.09221331947382867</v>
+        <v>0.01584279765584762</v>
       </c>
       <c r="E10">
-        <v>-0.01141793523292714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01584612438486675</v>
+      </c>
+      <c r="F10">
+        <v>0.02153968836967096</v>
+      </c>
+      <c r="G10">
+        <v>0.05159078166933077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0004866709696285243</v>
+        <v>0.03477519052926132</v>
       </c>
       <c r="C11">
-        <v>0.002368253298625605</v>
+        <v>0.05426242903642508</v>
       </c>
       <c r="D11">
-        <v>0.04370976198882636</v>
+        <v>-0.002512684662903975</v>
       </c>
       <c r="E11">
-        <v>-0.006128187336357385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009317040170115434</v>
+      </c>
+      <c r="F11">
+        <v>-0.02094526905907244</v>
+      </c>
+      <c r="G11">
+        <v>0.06438943055001234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006272402433730494</v>
+        <v>0.03651904874388086</v>
       </c>
       <c r="C12">
-        <v>0.008910606492703376</v>
+        <v>0.04906488153548719</v>
       </c>
       <c r="D12">
-        <v>0.04877058439261499</v>
+        <v>-0.00623956589356547</v>
       </c>
       <c r="E12">
-        <v>0.005832426276460783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0001762626291475156</v>
+      </c>
+      <c r="F12">
+        <v>-0.001004398167564727</v>
+      </c>
+      <c r="G12">
+        <v>0.05978316086087019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02389039027276195</v>
+        <v>0.01541800422525948</v>
       </c>
       <c r="C13">
-        <v>0.01719894220827389</v>
+        <v>0.03708190929935492</v>
       </c>
       <c r="D13">
-        <v>0.004885768581911339</v>
+        <v>-0.02609711406052601</v>
       </c>
       <c r="E13">
-        <v>-0.009348722859519081</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02895461273884034</v>
+      </c>
+      <c r="F13">
+        <v>-0.006074691569288704</v>
+      </c>
+      <c r="G13">
+        <v>0.09490171586636376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008560979563994443</v>
+        <v>0.008645022494318264</v>
       </c>
       <c r="C14">
-        <v>0.01414756599781981</v>
+        <v>0.02646542317496184</v>
       </c>
       <c r="D14">
-        <v>0.00941534373734468</v>
+        <v>-0.009279938705782918</v>
       </c>
       <c r="E14">
-        <v>0.007765346721128452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.001910062616836394</v>
+      </c>
+      <c r="F14">
+        <v>0.005797628174150153</v>
+      </c>
+      <c r="G14">
+        <v>0.08060549697619927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001438908724731356</v>
+        <v>0.03361736402265959</v>
       </c>
       <c r="C16">
-        <v>0.00850861919331004</v>
+        <v>0.04875601959068693</v>
       </c>
       <c r="D16">
-        <v>0.04985122066580014</v>
+        <v>-0.002007391627762732</v>
       </c>
       <c r="E16">
-        <v>0.005002507791875088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007658682249093509</v>
+      </c>
+      <c r="F16">
+        <v>-0.002033369984810816</v>
+      </c>
+      <c r="G16">
+        <v>0.06622998261967027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01462322064494472</v>
+        <v>0.02140390550423984</v>
       </c>
       <c r="C19">
-        <v>0.01836364438079901</v>
+        <v>0.05008722938870461</v>
       </c>
       <c r="D19">
-        <v>0.02247610707212381</v>
+        <v>-0.01829879633913834</v>
       </c>
       <c r="E19">
-        <v>0.004521219853105222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06594021920337467</v>
+      </c>
+      <c r="F19">
+        <v>-0.01998247381833986</v>
+      </c>
+      <c r="G19">
+        <v>0.10864777360805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01059436574699615</v>
+        <v>0.01506586671420803</v>
       </c>
       <c r="C20">
-        <v>0.00518394755265891</v>
+        <v>0.03743295078119683</v>
       </c>
       <c r="D20">
-        <v>0.01567000721494148</v>
+        <v>-0.01389037837832287</v>
       </c>
       <c r="E20">
-        <v>-0.01114433513283843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02684481133445703</v>
+      </c>
+      <c r="F20">
+        <v>0.01123713327328477</v>
+      </c>
+      <c r="G20">
+        <v>0.08611279431152898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01493364291870915</v>
+        <v>0.01353448700830207</v>
       </c>
       <c r="C21">
-        <v>0.01700452566326029</v>
+        <v>0.03940506240425894</v>
       </c>
       <c r="D21">
-        <v>0.02561000156437918</v>
+        <v>-0.01806017830834741</v>
       </c>
       <c r="E21">
-        <v>0.009879268373980626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03964005939822656</v>
+      </c>
+      <c r="F21">
+        <v>0.001272719376026113</v>
+      </c>
+      <c r="G21">
+        <v>0.1136705903888705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-4.790453318215549e-05</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-4.334560787934178e-06</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-6.288146675761467e-06</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-4.619461037310159e-05</v>
+      </c>
+      <c r="F22">
+        <v>-2.347619118623469e-05</v>
+      </c>
+      <c r="G22">
+        <v>-6.106341009127352e-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-4.790453318215549e-05</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-4.334560787934178e-06</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-6.288146675761467e-06</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-4.619461037310159e-05</v>
+      </c>
+      <c r="F23">
+        <v>-2.347619118623469e-05</v>
+      </c>
+      <c r="G23">
+        <v>-6.106341009127352e-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004391680292891084</v>
+        <v>0.0282569156129287</v>
       </c>
       <c r="C24">
-        <v>-0.002165204696131196</v>
+        <v>0.05145560518037274</v>
       </c>
       <c r="D24">
-        <v>0.04454931379872537</v>
+        <v>-0.007326122409252764</v>
       </c>
       <c r="E24">
-        <v>0.0007717629030725382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004914803369998179</v>
+      </c>
+      <c r="F24">
+        <v>-0.01371874738392628</v>
+      </c>
+      <c r="G24">
+        <v>0.06789363423164696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01238946980655161</v>
+        <v>0.04291120204802149</v>
       </c>
       <c r="C25">
-        <v>0.01505594371903882</v>
+        <v>0.0584445335669895</v>
       </c>
       <c r="D25">
-        <v>0.04713076988860299</v>
+        <v>-0.01136477782504826</v>
       </c>
       <c r="E25">
-        <v>0.00125924831415963</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001400618195602063</v>
+      </c>
+      <c r="F25">
+        <v>-0.007996643747684173</v>
+      </c>
+      <c r="G25">
+        <v>0.07545474600842758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02360310319531928</v>
+        <v>0.01552475571143796</v>
       </c>
       <c r="C26">
-        <v>0.01049372583933278</v>
+        <v>0.009024011596082125</v>
       </c>
       <c r="D26">
-        <v>-0.003386779545483902</v>
+        <v>-0.02341468058593091</v>
       </c>
       <c r="E26">
-        <v>0.009069631008538862</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.00274051243011132</v>
+      </c>
+      <c r="F26">
+        <v>0.007667383582962991</v>
+      </c>
+      <c r="G26">
+        <v>0.06390418315414434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0473258014276698</v>
+        <v>0.1221091422216286</v>
       </c>
       <c r="C28">
-        <v>0.2485263317098602</v>
+        <v>-0.2355067121002716</v>
       </c>
       <c r="D28">
-        <v>-0.1375839561204948</v>
+        <v>0.006804006742503953</v>
       </c>
       <c r="E28">
-        <v>0.01173924796986875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.003521775968601237</v>
+      </c>
+      <c r="F28">
+        <v>0.01650787649167794</v>
+      </c>
+      <c r="G28">
+        <v>0.06637448709859255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009090123958158752</v>
+        <v>0.01051509255977229</v>
       </c>
       <c r="C29">
-        <v>0.01926970308785811</v>
+        <v>0.02016105571223281</v>
       </c>
       <c r="D29">
-        <v>0.007625176811781677</v>
+        <v>-0.00806178665650285</v>
       </c>
       <c r="E29">
-        <v>0.003359431264590158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.003483924358634837</v>
+      </c>
+      <c r="F29">
+        <v>0.0149172718778234</v>
+      </c>
+      <c r="G29">
+        <v>0.0717310832140462</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02381777369472946</v>
+        <v>0.04333791636629476</v>
       </c>
       <c r="C30">
-        <v>-0.001060320800835213</v>
+        <v>0.06606281546968011</v>
       </c>
       <c r="D30">
-        <v>0.05845413665755901</v>
+        <v>-0.02891070088809814</v>
       </c>
       <c r="E30">
-        <v>-0.04748620817099531</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05223459091209074</v>
+      </c>
+      <c r="F30">
+        <v>-0.04888343997708747</v>
+      </c>
+      <c r="G30">
+        <v>0.08396205330500495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01011924479710344</v>
+        <v>0.05273985739136363</v>
       </c>
       <c r="C31">
-        <v>0.03913822656728227</v>
+        <v>0.03650173614381793</v>
       </c>
       <c r="D31">
-        <v>0.04740429779928467</v>
+        <v>-0.003318861388201166</v>
       </c>
       <c r="E31">
-        <v>0.0103981243888957</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005471948879307374</v>
+      </c>
+      <c r="F31">
+        <v>0.04210016046191128</v>
+      </c>
+      <c r="G31">
+        <v>0.06887743945238603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005146504979315521</v>
+        <v>0.00127819302394843</v>
       </c>
       <c r="C32">
-        <v>0.02083219067724209</v>
+        <v>0.02324157593931507</v>
       </c>
       <c r="D32">
-        <v>-0.006118627603495705</v>
+        <v>0.003887270309299323</v>
       </c>
       <c r="E32">
-        <v>0.0502631725835006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01638277275402409</v>
+      </c>
+      <c r="F32">
+        <v>-0.03965602485772895</v>
+      </c>
+      <c r="G32">
+        <v>0.09925434223945211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0140722975364462</v>
+        <v>0.02787800223987617</v>
       </c>
       <c r="C33">
-        <v>0.02242395574601179</v>
+        <v>0.04834992340728023</v>
       </c>
       <c r="D33">
-        <v>0.03130855070517649</v>
+        <v>-0.0153322305679501</v>
       </c>
       <c r="E33">
-        <v>-0.03000920005454671</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03386115766604125</v>
+      </c>
+      <c r="F33">
+        <v>-0.01757040610634894</v>
+      </c>
+      <c r="G33">
+        <v>0.1068468544707776</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003986086677096018</v>
+        <v>0.04012553447975239</v>
       </c>
       <c r="C34">
-        <v>0.015077239139901</v>
+        <v>0.06302080115947749</v>
       </c>
       <c r="D34">
-        <v>0.05213374005244084</v>
+        <v>0.00435722467711147</v>
       </c>
       <c r="E34">
-        <v>0.00951516027082693</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0006998640183656389</v>
+      </c>
+      <c r="F34">
+        <v>-0.02063354281385618</v>
+      </c>
+      <c r="G34">
+        <v>0.07581421085213133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01332781583656849</v>
+        <v>0.01522698429070492</v>
       </c>
       <c r="C36">
-        <v>0.01988171205232664</v>
+        <v>0.009564998934446321</v>
       </c>
       <c r="D36">
-        <v>0.00403942332251094</v>
+        <v>-0.01180657489061924</v>
       </c>
       <c r="E36">
-        <v>0.003440581485152758</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001747583210890224</v>
+      </c>
+      <c r="F36">
+        <v>0.008816604625651888</v>
+      </c>
+      <c r="G36">
+        <v>0.06135793293212828</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003223571295039272</v>
+        <v>0.03281048680694221</v>
       </c>
       <c r="C38">
-        <v>0.03103425011635898</v>
+        <v>0.03032534823697651</v>
       </c>
       <c r="D38">
-        <v>0.04283615599650746</v>
+        <v>0.007712228925467001</v>
       </c>
       <c r="E38">
-        <v>0.005412449605061407</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001386002161292718</v>
+      </c>
+      <c r="F38">
+        <v>0.01787098987421907</v>
+      </c>
+      <c r="G38">
+        <v>0.06678347181994344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004094180068406499</v>
+        <v>0.03537689208219796</v>
       </c>
       <c r="C39">
-        <v>-0.02450790408102321</v>
+        <v>0.08096379897827473</v>
       </c>
       <c r="D39">
-        <v>0.08558218488373763</v>
+        <v>-0.01194262281151605</v>
       </c>
       <c r="E39">
-        <v>-0.01066183389300946</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02112022522820767</v>
+      </c>
+      <c r="F39">
+        <v>-0.02647332218001686</v>
+      </c>
+      <c r="G39">
+        <v>0.06489036361141352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01231182770536471</v>
+        <v>0.01571104091146726</v>
       </c>
       <c r="C40">
-        <v>0.01526480099354434</v>
+        <v>0.04188438449980796</v>
       </c>
       <c r="D40">
-        <v>0.02866918253251144</v>
+        <v>-0.01507433389560399</v>
       </c>
       <c r="E40">
-        <v>0.002392946875643756</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02188490786791579</v>
+      </c>
+      <c r="F40">
+        <v>0.01424879094150026</v>
+      </c>
+      <c r="G40">
+        <v>0.10622334669129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006632424186914072</v>
+        <v>0.01893578502546836</v>
       </c>
       <c r="C41">
-        <v>0.02220818131325877</v>
+        <v>-0.0003724782094872027</v>
       </c>
       <c r="D41">
-        <v>-0.00837184172866671</v>
+        <v>-0.003724103613390259</v>
       </c>
       <c r="E41">
-        <v>0.003042022887423925</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-3.25457689321418e-05</v>
+      </c>
+      <c r="F41">
+        <v>0.01124742321342441</v>
+      </c>
+      <c r="G41">
+        <v>0.04813327075267997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09316714513964768</v>
+        <v>0.01035672614524659</v>
       </c>
       <c r="C42">
-        <v>-0.02410691771839633</v>
+        <v>0.03764765117589407</v>
       </c>
       <c r="D42">
-        <v>0.2653401838297696</v>
+        <v>-0.09341158832736841</v>
       </c>
       <c r="E42">
-        <v>-0.4166289960263392</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02797136596221039</v>
+      </c>
+      <c r="F42">
+        <v>0.03836279620179563</v>
+      </c>
+      <c r="G42">
+        <v>-0.1576582280471069</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007962801910313117</v>
+        <v>0.0337923696012037</v>
       </c>
       <c r="C43">
-        <v>0.02601980055691903</v>
+        <v>0.01342101679326988</v>
       </c>
       <c r="D43">
-        <v>-0.00595031205059824</v>
+        <v>-0.005368839279586237</v>
       </c>
       <c r="E43">
-        <v>-0.002189339818370299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01311086196441645</v>
+      </c>
+      <c r="F43">
+        <v>0.004270494799763627</v>
+      </c>
+      <c r="G43">
+        <v>0.07292008910744636</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.00240364169932954</v>
+        <v>0.01295347033009265</v>
       </c>
       <c r="C44">
-        <v>0.0007591201931927026</v>
+        <v>0.05464907450338789</v>
       </c>
       <c r="D44">
-        <v>0.03443628879149518</v>
+        <v>-0.006550021915101572</v>
       </c>
       <c r="E44">
-        <v>0.006232478687685203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01741793527355528</v>
+      </c>
+      <c r="F44">
+        <v>0.01018973299941456</v>
+      </c>
+      <c r="G44">
+        <v>0.08924021180047854</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01131048138967279</v>
+        <v>0.007617742365400856</v>
       </c>
       <c r="C46">
-        <v>0.01402110216031477</v>
+        <v>0.01580560285426445</v>
       </c>
       <c r="D46">
-        <v>0.01114506344045977</v>
+        <v>-0.01191275135435602</v>
       </c>
       <c r="E46">
-        <v>-0.001227124177288104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001429900396964647</v>
+      </c>
+      <c r="F46">
+        <v>0.01589966998341901</v>
+      </c>
+      <c r="G46">
+        <v>0.07164971213326704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004734396636880753</v>
+        <v>0.07815842795590522</v>
       </c>
       <c r="C47">
-        <v>0.04855655880429546</v>
+        <v>0.06476210802177114</v>
       </c>
       <c r="D47">
-        <v>0.07144733845337464</v>
+        <v>0.005332766617024855</v>
       </c>
       <c r="E47">
-        <v>0.005068766753084797</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009765451829400699</v>
+      </c>
+      <c r="F47">
+        <v>0.05591761218936481</v>
+      </c>
+      <c r="G47">
+        <v>0.06423586100592331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004272392728623241</v>
+        <v>0.02087183806869954</v>
       </c>
       <c r="C48">
-        <v>0.02437435462511786</v>
+        <v>0.01131819365493275</v>
       </c>
       <c r="D48">
-        <v>0.01680329356324758</v>
+        <v>-0.001080549927478524</v>
       </c>
       <c r="E48">
-        <v>0.002995762830216171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002335845567301235</v>
+      </c>
+      <c r="F48">
+        <v>0.0222360141363346</v>
+      </c>
+      <c r="G48">
+        <v>0.06750871674308967</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006861616465288844</v>
+        <v>0.07628144543110418</v>
       </c>
       <c r="C50">
-        <v>0.05174216936347591</v>
+        <v>0.06861029227245036</v>
       </c>
       <c r="D50">
-        <v>0.07007913797039855</v>
+        <v>0.002984833204997731</v>
       </c>
       <c r="E50">
-        <v>0.032593157757345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01000205499613816</v>
+      </c>
+      <c r="F50">
+        <v>0.0600257369841467</v>
+      </c>
+      <c r="G50">
+        <v>0.08403296648812295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.00747238049912575</v>
+        <v>0.01413623001893886</v>
       </c>
       <c r="C51">
-        <v>0.01450039027135355</v>
+        <v>0.0335277779480004</v>
       </c>
       <c r="D51">
-        <v>0.004505426614893057</v>
+        <v>-0.009966749009649299</v>
       </c>
       <c r="E51">
-        <v>0.00510096477135475</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01655515701717765</v>
+      </c>
+      <c r="F51">
+        <v>-0.02309956248804833</v>
+      </c>
+      <c r="G51">
+        <v>0.10366939182749</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.00787765188002851</v>
+        <v>0.08295664896117982</v>
       </c>
       <c r="C53">
-        <v>0.05937923679244779</v>
+        <v>0.08318459308590545</v>
       </c>
       <c r="D53">
-        <v>0.1282169834027498</v>
+        <v>0.004244458725204149</v>
       </c>
       <c r="E53">
-        <v>0.01278645159848572</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02976963742311916</v>
+      </c>
+      <c r="F53">
+        <v>0.0651562123940076</v>
+      </c>
+      <c r="G53">
+        <v>0.06299585445771211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001890324715704795</v>
+        <v>0.02961042143752016</v>
       </c>
       <c r="C54">
-        <v>0.03430924555539343</v>
+        <v>0.0145544009876119</v>
       </c>
       <c r="D54">
-        <v>-0.00516457573413261</v>
+        <v>0.001849480321702996</v>
       </c>
       <c r="E54">
-        <v>0.0006972695186101334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.008860092445272008</v>
+      </c>
+      <c r="F54">
+        <v>0.001798044163912097</v>
+      </c>
+      <c r="G54">
+        <v>0.074329649326051</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003917627456868394</v>
+        <v>0.07263073563193727</v>
       </c>
       <c r="C55">
-        <v>0.03869539838436523</v>
+        <v>0.06881146989867667</v>
       </c>
       <c r="D55">
-        <v>0.1059479317308425</v>
+        <v>0.005437382381386672</v>
       </c>
       <c r="E55">
-        <v>-0.0009566761283079938</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02578057827073211</v>
+      </c>
+      <c r="F55">
+        <v>0.06167835143065208</v>
+      </c>
+      <c r="G55">
+        <v>0.0380739192937376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.007055199761533347</v>
+        <v>0.1392690982625805</v>
       </c>
       <c r="C56">
-        <v>0.08280567710372325</v>
+        <v>0.1083383849737771</v>
       </c>
       <c r="D56">
-        <v>0.1657238935270983</v>
+        <v>0.0126329326138681</v>
       </c>
       <c r="E56">
-        <v>0.001938511742087729</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03314913725960045</v>
+      </c>
+      <c r="F56">
+        <v>0.0793895173478361</v>
+      </c>
+      <c r="G56">
+        <v>0.01507634693768486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02327927015661135</v>
+        <v>0.007042255107624213</v>
       </c>
       <c r="C57">
-        <v>0.007324187786748992</v>
+        <v>0.00915116579055095</v>
       </c>
       <c r="D57">
-        <v>0.04624521392625078</v>
+        <v>-0.0235581325639376</v>
       </c>
       <c r="E57">
-        <v>-0.003264320740795976</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02416360416144141</v>
+      </c>
+      <c r="F57">
+        <v>-0.008897696294800944</v>
+      </c>
+      <c r="G57">
+        <v>0.02831144930786415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01653451032766894</v>
+        <v>0.06524958722982346</v>
       </c>
       <c r="C58">
-        <v>0.07398910709381828</v>
+        <v>0.04205775750855941</v>
       </c>
       <c r="D58">
-        <v>0.1399402348186995</v>
+        <v>-0.02734574712055012</v>
       </c>
       <c r="E58">
-        <v>-0.4191584245174487</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9343887500953789</v>
+      </c>
+      <c r="F58">
+        <v>0.2418475006626603</v>
+      </c>
+      <c r="G58">
+        <v>-0.1096860758742656</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04461006233345043</v>
+        <v>0.1573018146254078</v>
       </c>
       <c r="C59">
-        <v>0.2614027052275816</v>
+        <v>-0.2041213291557395</v>
       </c>
       <c r="D59">
-        <v>-0.1378565460656717</v>
+        <v>0.01220902131347196</v>
       </c>
       <c r="E59">
-        <v>0.005186865065238658</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01444626539286445</v>
+      </c>
+      <c r="F59">
+        <v>0.0005161649531656314</v>
+      </c>
+      <c r="G59">
+        <v>0.04165188232305287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04411355704277561</v>
+        <v>0.2875622324136318</v>
       </c>
       <c r="C60">
-        <v>0.1606986473802313</v>
+        <v>0.09763537407306558</v>
       </c>
       <c r="D60">
-        <v>0.08666352169334104</v>
+        <v>-0.01293121837561175</v>
       </c>
       <c r="E60">
-        <v>0.004263529496215942</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.002907708526753116</v>
+      </c>
+      <c r="F60">
+        <v>-0.352560958735855</v>
+      </c>
+      <c r="G60">
+        <v>-0.1180832977229518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003057163417930748</v>
+        <v>0.0374914432303397</v>
       </c>
       <c r="C61">
-        <v>0.003382463900577824</v>
+        <v>0.06647529625646871</v>
       </c>
       <c r="D61">
-        <v>0.06169702601993938</v>
+        <v>-0.005289741983394068</v>
       </c>
       <c r="E61">
-        <v>0.00227369959258966</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01288331127145868</v>
+      </c>
+      <c r="F61">
+        <v>-0.01447261522439118</v>
+      </c>
+      <c r="G61">
+        <v>0.06719575190636579</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007901062616950699</v>
+        <v>0.01432939784463077</v>
       </c>
       <c r="C63">
-        <v>0.006880710988852312</v>
+        <v>0.02927338584597883</v>
       </c>
       <c r="D63">
-        <v>0.01210724886289358</v>
+        <v>-0.008160740491420546</v>
       </c>
       <c r="E63">
-        <v>0.009821395314761019</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001415440012762506</v>
+      </c>
+      <c r="F63">
+        <v>0.01827604847215733</v>
+      </c>
+      <c r="G63">
+        <v>0.07271961663217402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009264797549143658</v>
+        <v>0.04776456402224433</v>
       </c>
       <c r="C64">
-        <v>0.02652987311285444</v>
+        <v>0.0461750510052977</v>
       </c>
       <c r="D64">
-        <v>0.06393714542290363</v>
+        <v>-0.006387849070957979</v>
       </c>
       <c r="E64">
-        <v>-0.01398787706211716</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.002336185851050809</v>
+      </c>
+      <c r="F64">
+        <v>-0.005900554498760251</v>
+      </c>
+      <c r="G64">
+        <v>0.0618925988589837</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0167772014046689</v>
+        <v>0.07737240566227377</v>
       </c>
       <c r="C65">
-        <v>0.002703258966404476</v>
+        <v>0.05935961677657677</v>
       </c>
       <c r="D65">
-        <v>0.09925358557341936</v>
+        <v>-0.01633694737380662</v>
       </c>
       <c r="E65">
-        <v>0.011718901539073</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02814460104356829</v>
+      </c>
+      <c r="F65">
+        <v>-0.03130393954788041</v>
+      </c>
+      <c r="G65">
+        <v>0.02646765828578009</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.003902272557197093</v>
+        <v>0.05119232899996332</v>
       </c>
       <c r="C66">
-        <v>-0.02078348274530985</v>
+        <v>0.1117000010440539</v>
       </c>
       <c r="D66">
-        <v>0.1092067111263368</v>
+        <v>-0.01198184877211478</v>
       </c>
       <c r="E66">
-        <v>-0.007631270305807084</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02940805444710554</v>
+      </c>
+      <c r="F66">
+        <v>-0.03545776677493991</v>
+      </c>
+      <c r="G66">
+        <v>0.07526647469284072</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003726153950850926</v>
+        <v>0.05546305456439755</v>
       </c>
       <c r="C67">
-        <v>0.05272995882393931</v>
+        <v>0.03363063430721191</v>
       </c>
       <c r="D67">
-        <v>0.05034661821047356</v>
+        <v>0.00593271397079172</v>
       </c>
       <c r="E67">
-        <v>0.006641344781038633</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0051963152900107</v>
+      </c>
+      <c r="F67">
+        <v>0.01801600667701398</v>
+      </c>
+      <c r="G67">
+        <v>0.06054126207873649</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06124237402819849</v>
+        <v>0.1461487349560903</v>
       </c>
       <c r="C68">
-        <v>0.2411478930153045</v>
+        <v>-0.2695479003496229</v>
       </c>
       <c r="D68">
-        <v>-0.1499413647986403</v>
+        <v>-0.005461099594571093</v>
       </c>
       <c r="E68">
-        <v>-0.01552174607058415</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01004356868125219</v>
+      </c>
+      <c r="F68">
+        <v>0.03196851317496677</v>
+      </c>
+      <c r="G68">
+        <v>0.02541108407530981</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0006267340870055002</v>
+        <v>0.0817193302090419</v>
       </c>
       <c r="C69">
-        <v>0.03794324729797305</v>
+        <v>0.06783912181605718</v>
       </c>
       <c r="D69">
-        <v>0.0709582504151621</v>
+        <v>0.009447928008534763</v>
       </c>
       <c r="E69">
-        <v>0.01040184112639271</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02653654195569794</v>
+      </c>
+      <c r="F69">
+        <v>0.03908437611169389</v>
+      </c>
+      <c r="G69">
+        <v>0.0660762600776888</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04548008986481211</v>
+        <v>0.1347627457464485</v>
       </c>
       <c r="C71">
-        <v>0.209649012701394</v>
+        <v>-0.2293150147416952</v>
       </c>
       <c r="D71">
-        <v>-0.1194759353463427</v>
+        <v>0.003287761002959366</v>
       </c>
       <c r="E71">
-        <v>-0.009117587162267978</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02929772043697003</v>
+      </c>
+      <c r="F71">
+        <v>0.01673034015040721</v>
+      </c>
+      <c r="G71">
+        <v>0.05650072751471172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0005382346098848177</v>
+        <v>0.08685809749029362</v>
       </c>
       <c r="C72">
-        <v>0.03712039271063629</v>
+        <v>0.07190445861980853</v>
       </c>
       <c r="D72">
-        <v>0.1164152427116073</v>
+        <v>0.007990274825473351</v>
       </c>
       <c r="E72">
-        <v>0.006346539240310122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.001807577001488431</v>
+      </c>
+      <c r="F72">
+        <v>-0.04363876927064121</v>
+      </c>
+      <c r="G72">
+        <v>0.06050830143892384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05582152021096633</v>
+        <v>0.3793725679515491</v>
       </c>
       <c r="C73">
-        <v>0.1708109639858637</v>
+        <v>0.1116424251619971</v>
       </c>
       <c r="D73">
-        <v>0.1701210731287008</v>
+        <v>-0.02227868169065729</v>
       </c>
       <c r="E73">
-        <v>-0.03429812697785513</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07258590339383199</v>
+      </c>
+      <c r="F73">
+        <v>-0.571215667014161</v>
+      </c>
+      <c r="G73">
+        <v>-0.2042816792779212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003948925355714936</v>
+        <v>0.1080198816052434</v>
       </c>
       <c r="C74">
-        <v>0.06680793511494798</v>
+        <v>0.1110200389322393</v>
       </c>
       <c r="D74">
-        <v>0.1643889690360734</v>
+        <v>0.009806923997592514</v>
       </c>
       <c r="E74">
-        <v>-0.008805871641698064</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01222820508056092</v>
+      </c>
+      <c r="F74">
+        <v>0.07147467908602019</v>
+      </c>
+      <c r="G74">
+        <v>0.05828936408030203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01375931214471991</v>
+        <v>0.252063954087239</v>
       </c>
       <c r="C75">
-        <v>0.1655224140155089</v>
+        <v>0.147772790995454</v>
       </c>
       <c r="D75">
-        <v>0.302667399146358</v>
+        <v>0.03089376297703612</v>
       </c>
       <c r="E75">
-        <v>-0.01366306146047596</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05878877470255836</v>
+      </c>
+      <c r="F75">
+        <v>0.1744724714358788</v>
+      </c>
+      <c r="G75">
+        <v>-0.05658154811628578</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001296847780809121</v>
+        <v>0.1234248175735517</v>
       </c>
       <c r="C76">
-        <v>0.1032947595648689</v>
+        <v>0.1131613700913814</v>
       </c>
       <c r="D76">
-        <v>0.2326214206742399</v>
+        <v>0.02025387936518207</v>
       </c>
       <c r="E76">
-        <v>0.03458393668911209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04203851220559034</v>
+      </c>
+      <c r="F76">
+        <v>0.1147988750407644</v>
+      </c>
+      <c r="G76">
+        <v>0.03657530249204987</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01408178624177795</v>
+        <v>0.0668365638302502</v>
       </c>
       <c r="C77">
-        <v>0.01874009545873389</v>
+        <v>0.0589363325443277</v>
       </c>
       <c r="D77">
-        <v>0.03455439800137774</v>
+        <v>-0.01264006152585626</v>
       </c>
       <c r="E77">
-        <v>-0.0182909500469618</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05065685509559355</v>
+      </c>
+      <c r="F77">
+        <v>-0.01315811406596068</v>
+      </c>
+      <c r="G77">
+        <v>0.06340430052567342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006552716622322143</v>
+        <v>0.04467738673651486</v>
       </c>
       <c r="C78">
-        <v>0.01965169689079718</v>
+        <v>0.04856173598826222</v>
       </c>
       <c r="D78">
-        <v>0.04031926352020763</v>
+        <v>-0.005454634076186474</v>
       </c>
       <c r="E78">
-        <v>-0.003772150785150204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02329581703533354</v>
+      </c>
+      <c r="F78">
+        <v>-0.03669963332178519</v>
+      </c>
+      <c r="G78">
+        <v>0.07094373427602499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01692325239983833</v>
+        <v>0.05691315953810523</v>
       </c>
       <c r="C80">
-        <v>0.07802295736838326</v>
+        <v>0.07080389946821054</v>
       </c>
       <c r="D80">
-        <v>0.2219332852848507</v>
+        <v>-0.01029505537503581</v>
       </c>
       <c r="E80">
-        <v>0.780789035994182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02656196955432904</v>
+      </c>
+      <c r="F80">
+        <v>0.0002694458249644056</v>
+      </c>
+      <c r="G80">
+        <v>0.6222555031512703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008763723033183259</v>
+        <v>0.1404366061310874</v>
       </c>
       <c r="C81">
-        <v>0.09847632576026684</v>
+        <v>0.09483482786982787</v>
       </c>
       <c r="D81">
-        <v>0.1722067314784366</v>
+        <v>0.01534802612358704</v>
       </c>
       <c r="E81">
-        <v>0.01408235640448029</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03589440726338088</v>
+      </c>
+      <c r="F81">
+        <v>0.1313153122973761</v>
+      </c>
+      <c r="G81">
+        <v>0.02084787159273991</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.123130891964263</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.06636262415047753</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007331563282137305</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08778065105368671</v>
+      </c>
+      <c r="F82">
+        <v>0.03104209912226046</v>
+      </c>
+      <c r="G82">
+        <v>0.03374271190914113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007269052945814891</v>
+        <v>0.03638646922576701</v>
       </c>
       <c r="C83">
-        <v>0.01919344337899435</v>
+        <v>0.02618314927038411</v>
       </c>
       <c r="D83">
-        <v>0.02053535782442251</v>
+        <v>-0.005592050113250147</v>
       </c>
       <c r="E83">
-        <v>-0.0005746141994553125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02703846167512044</v>
+      </c>
+      <c r="F83">
+        <v>-0.03306779201215584</v>
+      </c>
+      <c r="G83">
+        <v>0.04803409696951189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02028457531404966</v>
+        <v>0.2175740563924274</v>
       </c>
       <c r="C85">
-        <v>0.1314641794883389</v>
+        <v>0.1417047507857128</v>
       </c>
       <c r="D85">
-        <v>0.27424374226017</v>
+        <v>0.01857919537541105</v>
       </c>
       <c r="E85">
-        <v>-0.006471514806123567</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09850022780356182</v>
+      </c>
+      <c r="F85">
+        <v>0.135023638882713</v>
+      </c>
+      <c r="G85">
+        <v>-0.1072810520624368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009926648493426164</v>
+        <v>0.01415602448639603</v>
       </c>
       <c r="C86">
-        <v>0.030690098400769</v>
+        <v>0.02507647342883876</v>
       </c>
       <c r="D86">
-        <v>0.008913453079308506</v>
+        <v>-0.0120243323721124</v>
       </c>
       <c r="E86">
-        <v>-0.03508090019086274</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04559302230948849</v>
+      </c>
+      <c r="F86">
+        <v>-0.03217443886652868</v>
+      </c>
+      <c r="G86">
+        <v>0.157100137105407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008882751492884533</v>
+        <v>0.02465869057778738</v>
       </c>
       <c r="C87">
-        <v>0.009108743190797833</v>
+        <v>0.02612957673167502</v>
       </c>
       <c r="D87">
-        <v>0.04105151067295792</v>
+        <v>-0.01193172892376848</v>
       </c>
       <c r="E87">
-        <v>-0.008321080565581725</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08446258358435248</v>
+      </c>
+      <c r="F87">
+        <v>-0.01936644711799192</v>
+      </c>
+      <c r="G87">
+        <v>0.09487151024820914</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02783959212002187</v>
+        <v>0.09185322631266993</v>
       </c>
       <c r="C88">
-        <v>0.02716385807305597</v>
+        <v>0.0643720476874749</v>
       </c>
       <c r="D88">
-        <v>0.03663074666023651</v>
+        <v>-0.02229151433160786</v>
       </c>
       <c r="E88">
-        <v>0.001160600680370178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01169863294047006</v>
+      </c>
+      <c r="F88">
+        <v>0.01965869046851277</v>
+      </c>
+      <c r="G88">
+        <v>0.04825766445089464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08686077610493255</v>
+        <v>0.2256546958976021</v>
       </c>
       <c r="C89">
-        <v>0.3899318009357304</v>
+        <v>-0.3695193123977717</v>
       </c>
       <c r="D89">
-        <v>-0.2118675026455437</v>
+        <v>0.00187348035656955</v>
       </c>
       <c r="E89">
-        <v>0.01717907114697601</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02326755484944402</v>
+      </c>
+      <c r="F89">
+        <v>0.03541549737543594</v>
+      </c>
+      <c r="G89">
+        <v>0.04857872162131464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06602747131330763</v>
+        <v>0.2021281714181324</v>
       </c>
       <c r="C90">
-        <v>0.3027981008877457</v>
+        <v>-0.3257218117738545</v>
       </c>
       <c r="D90">
-        <v>-0.1902703259038185</v>
+        <v>0.006207914144201096</v>
       </c>
       <c r="E90">
-        <v>-0.01644838545228332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01127221489862535</v>
+      </c>
+      <c r="F90">
+        <v>0.04909731636155436</v>
+      </c>
+      <c r="G90">
+        <v>0.01680221179612088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.009344486550762613</v>
+        <v>0.1910552584926834</v>
       </c>
       <c r="C91">
-        <v>0.1417369529465672</v>
+        <v>0.1400559068872726</v>
       </c>
       <c r="D91">
-        <v>0.2312773835467417</v>
+        <v>0.02334152833196373</v>
       </c>
       <c r="E91">
-        <v>0.01484956233864342</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06907163489298555</v>
+      </c>
+      <c r="F91">
+        <v>0.1498854707417563</v>
+      </c>
+      <c r="G91">
+        <v>0.00954260000217236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.03307019495085309</v>
+        <v>0.1991314750652962</v>
       </c>
       <c r="C92">
-        <v>0.3131705054603428</v>
+        <v>-0.2636619510666109</v>
       </c>
       <c r="D92">
-        <v>-0.0837610007855449</v>
+        <v>0.04050882433113523</v>
       </c>
       <c r="E92">
-        <v>-0.01913092732228238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02253258440875111</v>
+      </c>
+      <c r="F92">
+        <v>0.06321587108366573</v>
+      </c>
+      <c r="G92">
+        <v>0.1239663026519052</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06439073424743534</v>
+        <v>0.2281028156012969</v>
       </c>
       <c r="C93">
-        <v>0.3277006907401238</v>
+        <v>-0.3244335116800391</v>
       </c>
       <c r="D93">
-        <v>-0.1750431240035019</v>
+        <v>0.01291968259706741</v>
       </c>
       <c r="E93">
-        <v>-0.04113930872967231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.002626678665506382</v>
+      </c>
+      <c r="F93">
+        <v>0.03348500682535835</v>
+      </c>
+      <c r="G93">
+        <v>0.0202592203925577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03297063031616151</v>
+        <v>0.3162327386113784</v>
       </c>
       <c r="C94">
-        <v>0.1635656208169404</v>
+        <v>0.175394062349886</v>
       </c>
       <c r="D94">
-        <v>0.2637498832873526</v>
+        <v>0.01792363919114395</v>
       </c>
       <c r="E94">
-        <v>-0.01499769251647336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1711709958732766</v>
+      </c>
+      <c r="F94">
+        <v>0.4737217289165747</v>
+      </c>
+      <c r="G94">
+        <v>-0.3119261373657972</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004255883191579709</v>
+        <v>0.09912465526733109</v>
       </c>
       <c r="C95">
-        <v>0.03557811749088924</v>
+        <v>0.08674565647697891</v>
       </c>
       <c r="D95">
-        <v>0.08657836567852688</v>
+        <v>0.009421944489146079</v>
       </c>
       <c r="E95">
-        <v>-0.1269604252183796</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06395520008239511</v>
+      </c>
+      <c r="F95">
+        <v>-0.2077103868125131</v>
+      </c>
+      <c r="G95">
+        <v>-0.121755549983259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01659925628226326</v>
+        <v>0.1999467410212254</v>
       </c>
       <c r="C98">
-        <v>0.1562538441665142</v>
+        <v>0.04534939698644476</v>
       </c>
       <c r="D98">
-        <v>0.130487911710267</v>
+        <v>0.0123825484811444</v>
       </c>
       <c r="E98">
-        <v>-0.04339773110294562</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06998855143131423</v>
+      </c>
+      <c r="F98">
+        <v>-0.2376208080979758</v>
+      </c>
+      <c r="G98">
+        <v>-0.004935836352103298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008871097811041024</v>
+        <v>0.01034168391159366</v>
       </c>
       <c r="C101">
-        <v>0.01898763788829557</v>
+        <v>0.02011954469825234</v>
       </c>
       <c r="D101">
-        <v>0.007320555612937677</v>
+        <v>-0.007881972882393133</v>
       </c>
       <c r="E101">
-        <v>0.003761953095934238</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.003771953760988525</v>
+      </c>
+      <c r="F101">
+        <v>0.01592969676884749</v>
+      </c>
+      <c r="G101">
+        <v>0.0712024705766271</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01874635302801326</v>
+        <v>0.1188705073758627</v>
       </c>
       <c r="C102">
-        <v>0.07127680351585053</v>
+        <v>0.08397972714671975</v>
       </c>
       <c r="D102">
-        <v>0.1349597902248554</v>
+        <v>-0.0009298168373235278</v>
       </c>
       <c r="E102">
-        <v>0.0009546126337454799</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03248565666584487</v>
+      </c>
+      <c r="F102">
+        <v>0.04082054162604069</v>
+      </c>
+      <c r="G102">
+        <v>0.0004621215116825822</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001707163402749553</v>
+        <v>0.003014982269815679</v>
       </c>
       <c r="C103">
-        <v>0.00886324554875393</v>
+        <v>0.003686775645695793</v>
       </c>
       <c r="D103">
-        <v>0.02208807480033376</v>
+        <v>-0.000174402776366422</v>
       </c>
       <c r="E103">
-        <v>0.01369687029844715</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.00203606196292993</v>
+      </c>
+      <c r="F103">
+        <v>0.004501365827077322</v>
+      </c>
+      <c r="G103">
+        <v>0.01234211244744237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9732836859869602</v>
+        <v>0.02198749255884468</v>
       </c>
       <c r="C104">
-        <v>-0.1846288982925618</v>
+        <v>-0.03258239393343111</v>
       </c>
       <c r="D104">
-        <v>-0.01838480451263774</v>
+        <v>-0.9872555870640735</v>
       </c>
       <c r="E104">
-        <v>0.04076184471012802</v>
+        <v>0.05253681340701626</v>
+      </c>
+      <c r="F104">
+        <v>0.0379290730064949</v>
+      </c>
+      <c r="G104">
+        <v>-0.02354293755956234</v>
       </c>
     </row>
   </sheetData>
